--- a/Task_manager_test_scenarios_Pohlidalova.xlsx
+++ b/Task_manager_test_scenarios_Pohlidalova.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pohli\Desktop\ENGETO PYTHON\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pohli\Desktop\ENGETO PYTHON\Task_manager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B089404E-ADF6-4519-8150-E8DBF5E7623D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01503EB5-EE6D-4872-9413-60FB377B3A3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="240" windowWidth="23040" windowHeight="12300" xr2:uid="{FB5368AD-FD66-4418-8D2F-01133AD056FE}"/>
+    <workbookView xWindow="25032" yWindow="708" windowWidth="23040" windowHeight="15624" xr2:uid="{FB5368AD-FD66-4418-8D2F-01133AD056FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="298">
   <si>
     <t>TC ID</t>
   </si>
@@ -799,9 +799,6 @@
   </si>
   <si>
     <t>Zadáno postupně 10 úkolů, pořadí zkontrolováno, přiřazené pořadové číslo je správně.</t>
-  </si>
-  <si>
-    <t>Pozn.: nedostatek je, ze se po ukoncen programu neulozi ukoly. Jsou pouze v pameti.</t>
   </si>
   <si>
     <t>Zobrazil se název a popis úkolu obsahující speciální znaky  @#$%.</t>
@@ -1310,7 +1307,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1694,12 +1691,12 @@
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
@@ -1720,7 +1717,7 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
@@ -1752,8 +1749,8 @@
   <dimension ref="A1:J45"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B42" sqref="B42"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1850,7 +1847,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>51</v>
@@ -1882,7 +1879,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>55</v>
@@ -1914,7 +1911,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>59</v>
@@ -1946,7 +1943,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>63</v>
@@ -1978,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>67</v>
@@ -2010,7 +2007,7 @@
         <v>10</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>67</v>
@@ -2042,7 +2039,7 @@
         <v>10</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>67</v>
@@ -2074,7 +2071,7 @@
         <v>10</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>67</v>
@@ -2106,7 +2103,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>82</v>
@@ -2138,7 +2135,7 @@
         <v>10</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>67</v>
@@ -2170,7 +2167,7 @@
         <v>86</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>87</v>
@@ -2199,10 +2196,10 @@
         <v>91</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>92</v>
@@ -2234,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G15" s="6" t="s">
         <v>96</v>
@@ -2266,7 +2263,7 @@
         <v>20</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G16" s="6" t="s">
         <v>100</v>
@@ -2298,7 +2295,7 @@
         <v>20</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G17" s="6" t="s">
         <v>104</v>
@@ -2330,7 +2327,7 @@
         <v>20</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>109</v>
@@ -2362,7 +2359,7 @@
         <v>20</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G19" s="6" t="s">
         <v>112</v>
@@ -2394,7 +2391,7 @@
         <v>20</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G20" s="6" t="s">
         <v>117</v>
@@ -2426,7 +2423,7 @@
         <v>121</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>122</v>
@@ -2458,7 +2455,7 @@
         <v>86</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G22" s="6" t="s">
         <v>126</v>
@@ -2490,7 +2487,7 @@
         <v>29</v>
       </c>
       <c r="F23" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G23" s="6" t="s">
         <v>129</v>
@@ -2522,7 +2519,7 @@
         <v>31</v>
       </c>
       <c r="F24" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G24" s="6" t="s">
         <v>133</v>
@@ -2554,7 +2551,7 @@
         <v>138</v>
       </c>
       <c r="F25" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G25" s="6" t="s">
         <v>139</v>
@@ -2586,7 +2583,7 @@
         <v>143</v>
       </c>
       <c r="F26" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G26" s="6" t="s">
         <v>144</v>
@@ -2618,13 +2615,13 @@
         <v>149</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G27" s="6" t="s">
         <v>150</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="I27" s="6" t="s">
         <v>11</v>
@@ -2665,7 +2662,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="72" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>209</v>
       </c>
@@ -2682,7 +2679,7 @@
         <v>243</v>
       </c>
       <c r="F29" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G29" s="6" t="s">
         <v>159</v>
@@ -2714,13 +2711,13 @@
         <v>86</v>
       </c>
       <c r="F30" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G30" s="6" t="s">
         <v>162</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="I30" s="6" t="s">
         <v>11</v>
@@ -2746,13 +2743,13 @@
         <v>29</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G31" s="6" t="s">
         <v>165</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I31" s="6" t="s">
         <v>11</v>
@@ -2778,13 +2775,13 @@
         <v>31</v>
       </c>
       <c r="F32" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G32" s="6" t="s">
         <v>168</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I32" s="6" t="s">
         <v>11</v>
@@ -2810,13 +2807,13 @@
         <v>31</v>
       </c>
       <c r="F33" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G33" s="6" t="s">
         <v>171</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I33" s="6" t="s">
         <v>11</v>
@@ -2842,13 +2839,13 @@
         <v>31</v>
       </c>
       <c r="F34" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G34" s="6" t="s">
         <v>174</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I34" s="6" t="s">
         <v>11</v>
@@ -2874,13 +2871,13 @@
         <v>31</v>
       </c>
       <c r="F35" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G35" s="6" t="s">
         <v>179</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I35" s="6" t="s">
         <v>11</v>
@@ -2906,13 +2903,13 @@
         <v>31</v>
       </c>
       <c r="F36" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G36" s="6" t="s">
         <v>179</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I36" s="6" t="s">
         <v>11</v>
@@ -2938,13 +2935,13 @@
         <v>31</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G37" s="6" t="s">
         <v>179</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I37" s="6" t="s">
         <v>11</v>
@@ -2970,13 +2967,13 @@
         <v>31</v>
       </c>
       <c r="F38" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G38" s="6" t="s">
         <v>189</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="I38" s="6" t="s">
         <v>11</v>
@@ -3002,13 +2999,13 @@
         <v>31</v>
       </c>
       <c r="F39" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G39" s="6" t="s">
         <v>192</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="I39" s="6" t="s">
         <v>11</v>
@@ -3034,13 +3031,13 @@
         <v>31</v>
       </c>
       <c r="F40" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G40" s="6" t="s">
         <v>196</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="I40" s="6" t="s">
         <v>11</v>
@@ -3066,13 +3063,13 @@
         <v>121</v>
       </c>
       <c r="F41" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G41" s="6" t="s">
         <v>200</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="I41" s="6" t="s">
         <v>11</v>
@@ -3098,13 +3095,13 @@
         <v>29</v>
       </c>
       <c r="F42" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G42" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" s="6" t="s">
         <v>271</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>272</v>
       </c>
       <c r="I42" s="6" t="s">
         <v>11</v>
@@ -3113,10 +3110,8 @@
         <v>205</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="72" x14ac:dyDescent="0.3">
-      <c r="A45" s="16" t="s">
-        <v>246</v>
-      </c>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="16"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="I1:I1048576">
@@ -3141,7 +3136,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71FA475-F75A-41FB-8AB1-547739A54E90}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3150,7 +3147,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
   </sheetData>
